--- a/mbs-perturbation/nano/elm/nano_elm_rbf_linf_results.xlsx
+++ b/mbs-perturbation/nano/elm/nano_elm_rbf_linf_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9316239316239316</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.74406364749082</v>
+        <v>0.8068652849740933</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5217391304347827</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8815829528158295</v>
+        <v>0.8676923076923075</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.411764705882353</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7723894463024898</v>
+        <v>0.7051977040816326</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8194786030496803</v>
+        <v>0.6992187499999999</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9009433962264151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7961008186126668</v>
+        <v>0.7837433155080215</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9305711455926048</v>
+        <v>0.9246478873239437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2754729481045271</v>
+        <v>0.2207692307692308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4028179833806432</v>
+        <v>0.3310752688172043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8027230936542973</v>
+        <v>0.772543472451211</v>
       </c>
     </row>
   </sheetData>
